--- a/data/trans_bre/P19-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P19-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P19-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P19-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,01</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,73</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,09</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,8%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,12%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,48%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,15%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,47; 5,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,34; 10,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,42; 10,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,04; 3,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,83; 28,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,55; 68,56</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,13; 67,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,36; 23,53</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,37</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,18</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,01</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,08</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,34%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,77%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,52%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,84%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,02; 14,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,96; 10,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,09; 10,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,15; 8,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,92; 61,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,81; 41,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,53; 34,35</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,43; 35,7</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,12</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,54</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,06</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,08</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,92%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,39%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,96%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,27%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,32; 12,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,12; 11,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,59; 9,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,75; 15,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,17; 43,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,76; 34,62</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,16; 26,58</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,2; 46,07</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,47</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,67</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,27</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,23</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,99%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,08%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,12%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,14; 8,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,34; 7,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,91; 7,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,07; 6,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,76; 35,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,94; 33,05</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,57; 25,83</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,79; 27,32</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P19-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P19-Estudios-trans_bre.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-2,15%</t>
+          <t>-3,73%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 3,45</t>
+          <t>-4,54; 3,07</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-20,36; 23,53</t>
+          <t>-21,78; 21,0</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,08</t>
+          <t>5,69</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>19,84%</t>
+          <t>23,91%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 8,64</t>
+          <t>-1,97; 13,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 35,7</t>
+          <t>-5,56; 72,4</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10,08</t>
+          <t>10,23</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>28,27%</t>
+          <t>28,71%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,75; 15,41</t>
+          <t>5,06; 15,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,2; 46,07</t>
+          <t>12,54; 47,38</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,23</t>
+          <t>4,79</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>16,12%</t>
+          <t>19,11%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,07; 6,81</t>
+          <t>-0,33; 10,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,79; 27,32</t>
+          <t>0,1; 49,06</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P19-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P19-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 5,47</t>
+          <t>-1,01; 5,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,34; 10,18</t>
+          <t>3,31; 10,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,42; 10,25</t>
+          <t>2,3; 10,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 3,07</t>
+          <t>-4,57; 3,39</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,83; 28,82</t>
+          <t>-4,38; 30,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>18,55; 68,56</t>
+          <t>18,35; 72,08</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>12,13; 67,52</t>
+          <t>12,41; 66,8</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-21,78; 21,0</t>
+          <t>-23,16; 21,96</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,02; 14,7</t>
+          <t>8,14; 14,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,96; 10,07</t>
+          <t>4,04; 10,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,09; 10,23</t>
+          <t>4,11; 9,91</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 13,29</t>
+          <t>-1,64; 13,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>29,92; 61,2</t>
+          <t>29,96; 60,05</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,81; 41,08</t>
+          <t>14,8; 42,69</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,53; 34,35</t>
+          <t>12,47; 33,84</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 72,4</t>
+          <t>-5,1; 70,96</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,32; 12,13</t>
+          <t>-0,2; 12,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 11,7</t>
+          <t>-2,15; 11,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 9,37</t>
+          <t>-2,71; 9,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,06; 15,74</t>
+          <t>4,99; 15,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,17; 43,37</t>
+          <t>-0,63; 44,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 34,62</t>
+          <t>-5,5; 37,36</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 26,58</t>
+          <t>-6,74; 26,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,54; 47,38</t>
+          <t>12,59; 48,51</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,14; 8,52</t>
+          <t>4,39; 8,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,34; 7,86</t>
+          <t>3,4; 7,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,91; 7,33</t>
+          <t>3,01; 7,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 10,27</t>
+          <t>-0,16; 10,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>15,76; 35,79</t>
+          <t>17,09; 35,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,94; 33,05</t>
+          <t>13,5; 32,98</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,57; 25,83</t>
+          <t>9,84; 26,6</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,1; 49,06</t>
+          <t>-0,07; 48,01</t>
         </is>
       </c>
     </row>
